--- a/ESP8266_micro/calibracion.xlsx
+++ b/ESP8266_micro/calibracion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pastmtto\github\MCI\ESP8266_micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2CFF912-DF83-4235-A80E-753CD2C09F78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF8D7B-E051-491E-A287-1F3003526B44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A6B3FCB4-652F-4B52-AAE7-96160FDFE3EB}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="2400" windowHeight="585" xr2:uid="{A6B3FCB4-652F-4B52-AAE7-96160FDFE3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:order val="4"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -233,10 +233,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
+              <c:f>Hoja1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>46.348509999999997</c:v>
                 </c:pt>
@@ -341,16 +341,25 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>40.263500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$36</c:f>
+              <c:f>Hoja1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
@@ -455,6 +464,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C484F-992D-4171-BDF9-F0FE8E3E6419}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,6 +1864,30 @@
         <v>33.4</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>52.5</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ESP8266_micro/calibracion.xlsx
+++ b/ESP8266_micro/calibracion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pastmtto\github\MCI\ESP8266_micro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pastingenieria\Dropbox (Elite Flower)\Documentos\GitHub\MCI\ESP8266_micro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF8D7B-E051-491E-A287-1F3003526B44}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6EF90-174C-47A7-B9EA-E8C99B880A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="690" windowWidth="2400" windowHeight="585" xr2:uid="{A6B3FCB4-652F-4B52-AAE7-96160FDFE3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6B3FCB4-652F-4B52-AAE7-96160FDFE3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sensor</t>
   </si>
@@ -41,15 +43,29 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>emisi</t>
+  </si>
+  <si>
+    <t>stefan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,13 +88,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -191,14 +210,16 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:order val="3"/>
+            <c:forward val="3"/>
+            <c:backward val="3"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.5438838385545155E-2"/>
-                  <c:y val="0.18321674121711565"/>
+                  <c:x val="8.8485391880759434E-2"/>
+                  <c:y val="0.37403946681616451"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -238,118 +259,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>46.348509999999997</c:v>
+                  <c:v>30.155000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.227510000000002</c:v>
+                  <c:v>32.527000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.289520000000003</c:v>
+                  <c:v>31.085000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.381010000000003</c:v>
+                  <c:v>31.379989999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.05</c:v>
+                  <c:v>30.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.682500000000001</c:v>
+                  <c:v>28.600999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.22</c:v>
+                  <c:v>29.568000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.500499999999999</c:v>
+                  <c:v>31.130990000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.943989999999999</c:v>
+                  <c:v>29.76399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.826500000000003</c:v>
+                  <c:v>29.419989999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.594000000000001</c:v>
+                  <c:v>27.940999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.241</c:v>
+                  <c:v>31.771000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.151000000000003</c:v>
+                  <c:v>32.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.072009999999999</c:v>
+                  <c:v>32.274999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.276</c:v>
+                  <c:v>31.047000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.834989999999998</c:v>
+                  <c:v>30.324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.006999999999998</c:v>
+                  <c:v>31.521999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.964489999999998</c:v>
+                  <c:v>31.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.345500000000001</c:v>
+                  <c:v>32.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48.819000000000003</c:v>
+                  <c:v>24.908999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.5185</c:v>
+                  <c:v>26.876000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.1235</c:v>
+                  <c:v>35.659999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45.945500000000003</c:v>
+                  <c:v>30.268999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.655999999999999</c:v>
+                  <c:v>30.458010000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.209159999999997</c:v>
+                  <c:v>30.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44.09</c:v>
+                  <c:v>31.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>33.787999999999997</c:v>
+                  <c:v>30.867000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.614989999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37.191000000000003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40.573500000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41.319499999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.830500000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>48.131500000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43.381999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40.263500000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>52.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,118 +352,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>35.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>35.6</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36.1</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.799999999999997</c:v>
+                  <c:v>34.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.1</c:v>
+                  <c:v>36.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.9</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
                   <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,15 +1526,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C484F-992D-4171-BDF9-F0FE8E3E6419}">
-  <dimension ref="A1:R39"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1581,196 +1543,216 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>46.348509999999997</v>
+        <v>30.155000000000001</v>
       </c>
       <c r="B2">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>32.527000000000001</v>
+      </c>
+      <c r="B3">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31.085000000000001</v>
+      </c>
+      <c r="B4">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31.379989999999999</v>
+      </c>
+      <c r="B5">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30.76</v>
+      </c>
+      <c r="B6">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28.600999999999999</v>
+      </c>
+      <c r="B7">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>29.568000000000001</v>
+      </c>
+      <c r="B8">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>45.227510000000002</v>
-      </c>
-      <c r="B3">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>46.289520000000003</v>
-      </c>
-      <c r="B4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31.130990000000001</v>
+      </c>
+      <c r="B9">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>47.381010000000003</v>
-      </c>
-      <c r="B5">
+      <c r="N9">
+        <v>27.1</v>
+      </c>
+      <c r="O9">
+        <f>0.0631*N9^3-5.9572*N9^2+187.43*N9-1929.4</f>
+        <v>30.774192099999254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29.76399</v>
+      </c>
+      <c r="B10">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29.419989999999999</v>
+      </c>
+      <c r="B11">
         <v>35.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>49.05</v>
-      </c>
-      <c r="B6">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>17.682500000000001</v>
-      </c>
-      <c r="B7">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17.22</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>17.500499999999999</v>
-      </c>
-      <c r="B9">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>46.943989999999999</v>
-      </c>
-      <c r="B10">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>27.940999999999999</v>
+      </c>
+      <c r="B12">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>31.771000000000001</v>
+      </c>
+      <c r="B13">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="B14">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>32.274999999999999</v>
+      </c>
+      <c r="B15">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>31.047000000000001</v>
+      </c>
+      <c r="B16">
         <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>47.826500000000003</v>
-      </c>
-      <c r="B11">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>17.594000000000001</v>
-      </c>
-      <c r="B12">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>17.241</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>38.151000000000003</v>
-      </c>
-      <c r="B14">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>47.072009999999999</v>
-      </c>
-      <c r="B15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>31.276</v>
-      </c>
-      <c r="B16">
-        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37.834989999999998</v>
+        <v>30.324999999999999</v>
       </c>
       <c r="B17">
-        <v>35.299999999999997</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>46.006999999999998</v>
+        <v>31.521999999999998</v>
       </c>
       <c r="B18">
-        <v>36.1</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>45.964489999999998</v>
+        <v>31.768000000000001</v>
       </c>
       <c r="B19">
-        <v>35.799999999999997</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>47.345500000000001</v>
+        <v>32.18</v>
       </c>
       <c r="B20">
-        <v>36.5</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>48.819000000000003</v>
+        <v>24.908999999999999</v>
       </c>
       <c r="B21">
-        <v>36.5</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18.5185</v>
+        <v>26.876000000000001</v>
       </c>
       <c r="B22">
-        <v>23.3</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18.1235</v>
+        <v>35.659999999999997</v>
       </c>
       <c r="B23">
-        <v>23.3</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>45.945500000000003</v>
+        <v>30.268999999999998</v>
       </c>
       <c r="B24">
-        <v>35.799999999999997</v>
+        <v>36.4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>48.655999999999999</v>
+        <v>30.458010000000002</v>
       </c>
       <c r="B25">
-        <v>36.1</v>
+        <v>35.6</v>
+      </c>
+      <c r="G25">
+        <v>0.98</v>
+      </c>
+      <c r="H25">
+        <f>5.6704*10^-8</f>
+        <v>5.6704000000000003E-8</v>
       </c>
       <c r="R25" t="s">
         <v>2</v>
@@ -1778,115 +1760,38 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>34.209159999999997</v>
+        <v>30.58</v>
       </c>
       <c r="B26">
-        <v>32.799999999999997</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>44.09</v>
+        <v>31.332999999999998</v>
       </c>
       <c r="B27">
-        <v>36.1</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33.787999999999997</v>
+        <v>30.867000000000001</v>
       </c>
       <c r="B28">
-        <v>32.9</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>36.614989999999999</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>37.191000000000003</v>
-      </c>
-      <c r="B30">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>40.573500000000003</v>
-      </c>
-      <c r="B31">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>41.319499999999998</v>
-      </c>
-      <c r="B32">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>17.830500000000001</v>
-      </c>
-      <c r="B33">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>48.131500000000003</v>
-      </c>
-      <c r="B34">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>43.381999999999998</v>
-      </c>
-      <c r="B35">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>40.263500000000001</v>
-      </c>
-      <c r="B36">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>52</v>
-      </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>52.5</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
